--- a/2016elections/20160127-mnpoll/builds/development/data/maindata.xlsx
+++ b/2016elections/20160127-mnpoll/builds/development/data/maindata.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
     <sheet name="questions" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="source" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14135" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="307">
   <si>
     <t>year</t>
   </si>
@@ -1199,12 +1199,36 @@
   <si>
     <t xml:space="preserve">Independent            29%        19%          42%        10% </t>
   </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>polls</t>
+  </si>
+  <si>
+    <t>questions</t>
+  </si>
+  <si>
+    <t>Mason-Dixon Polling and Strategy</t>
+  </si>
+  <si>
+    <t>Cleaned polling questions and answers</t>
+  </si>
+  <si>
+    <t>Raw polling questions and answers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1262,6 +1286,12 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1341,7 +1371,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1371,6 +1401,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -53805,7 +53836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
@@ -54488,22 +54519,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="17" customFormat="1">
+      <c r="A6" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/2016elections/20160127-mnpoll/builds/development/data/maindata.xlsx
+++ b/2016elections/20160127-mnpoll/builds/development/data/maindata.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2200" yWindow="1660" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="polls" sheetId="1" r:id="rId1"/>
     <sheet name="questions" sheetId="2" r:id="rId2"/>
     <sheet name="source" sheetId="3" r:id="rId3"/>
+    <sheet name="layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14144" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14201" uniqueCount="335">
   <si>
     <t>year</t>
   </si>
@@ -1223,6 +1224,90 @@
   <si>
     <t>Raw polling questions and answers</t>
   </si>
+  <si>
+    <t>Year the poll was conducted</t>
+  </si>
+  <si>
+    <t>The question's tag</t>
+  </si>
+  <si>
+    <t>The question as asked on the survey</t>
+  </si>
+  <si>
+    <t>The demographic group providing the answer</t>
+  </si>
+  <si>
+    <t>Wording of the first option answer</t>
+  </si>
+  <si>
+    <t>Wording of the second option answer</t>
+  </si>
+  <si>
+    <t>Wording of the third option answer</t>
+  </si>
+  <si>
+    <t>Wording of the fourth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the fifth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the sixth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the seventh option answer</t>
+  </si>
+  <si>
+    <t>Wording of the eighth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the nineth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the tenth option answer</t>
+  </si>
+  <si>
+    <t>Wording of the eleventh option answer</t>
+  </si>
+  <si>
+    <t>Wording of the twelfth option answer</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the first option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with second first option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the third option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the fourth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the fifth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the sixth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the seventh option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the eighth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the nineth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the tenth option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the eleventh option</t>
+  </si>
+  <si>
+    <t>Percentage who answered with the twelfth option</t>
+  </si>
 </sst>
 </file>
 
@@ -1318,8 +1403,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1403,7 +1492,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1429,6 +1518,8 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1454,6 +1545,8 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1785,9 +1878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB605"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -53824,6 +53917,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -54521,7 +54615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -54581,4 +54675,254 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>